--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -29,9 +32,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -62,241 +62,259 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.885+/-0.002</t>
-  </si>
-  <si>
-    <t>0.819+/-0.0</t>
-  </si>
-  <si>
-    <t>0.819</t>
-  </si>
-  <si>
-    <t>0.884+/-0.003</t>
-  </si>
-  <si>
-    <t>0.786+/-0.018</t>
-  </si>
-  <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.805+/-0.003</t>
-  </si>
-  <si>
-    <t>0.723+/-0.024</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>10.578+/-0.817</t>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.883+/-0.002</t>
+  </si>
+  <si>
+    <t>0.814+/-0.0</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.876+/-0.002</t>
+  </si>
+  <si>
+    <t>0.774+/-0.02</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.807+/-0.004</t>
+  </si>
+  <si>
+    <t>0.723+/-0.023</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>9.046+/-0.139</t>
   </si>
   <si>
     <t>0.768+/-0.002</t>
   </si>
   <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.716+/-0.004</t>
-  </si>
-  <si>
-    <t>0.696+/-0.018</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.649+/-0.003</t>
-  </si>
-  <si>
-    <t>0.635+/-0.028</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>1.805+/-0.126</t>
-  </si>
-  <si>
-    <t>0.833+/-0.002</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.798+/-0.003</t>
-  </si>
-  <si>
-    <t>0.755+/-0.02</t>
-  </si>
-  <si>
-    <t>0.752+/-0.004</t>
-  </si>
-  <si>
-    <t>0.706+/-0.02</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>6.555+/-0.136</t>
-  </si>
-  <si>
-    <t>0.789+/-0.004</t>
-  </si>
-  <si>
-    <t>0.765+/-0.0</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.791+/-0.012</t>
-  </si>
-  <si>
-    <t>0.754+/-0.034</t>
-  </si>
-  <si>
-    <t>0.775</t>
-  </si>
-  <si>
-    <t>0.607+/-0.019</t>
-  </si>
-  <si>
-    <t>0.57+/-0.028</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>0.854+/-0.087</t>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754</t>
+  </si>
+  <si>
+    <t>0.712+/-0.004</t>
+  </si>
+  <si>
+    <t>0.691+/-0.02</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.655+/-0.005</t>
+  </si>
+  <si>
+    <t>0.641+/-0.02</t>
+  </si>
+  <si>
+    <t>1.47+/-0.029</t>
+  </si>
+  <si>
+    <t>0.832+/-0.002</t>
+  </si>
+  <si>
+    <t>0.798+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.795+/-0.003</t>
+  </si>
+  <si>
+    <t>0.748+/-0.018</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.754+/-0.004</t>
+  </si>
+  <si>
+    <t>0.71+/-0.018</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>5.829+/-0.087</t>
+  </si>
+  <si>
+    <t>0.787+/-0.003</t>
+  </si>
+  <si>
+    <t>0.763+/-0.0</t>
+  </si>
+  <si>
+    <t>0.766</t>
+  </si>
+  <si>
+    <t>0.764+/-0.013</t>
+  </si>
+  <si>
+    <t>0.729+/-0.035</t>
+  </si>
+  <si>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.638+/-0.014</t>
+  </si>
+  <si>
+    <t>0.603+/-0.025</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.69+/-0.021</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
   </si>
   <si>
     <t>0.904+/-0.001</t>
   </si>
   <si>
-    <t>0.868+/-0.0</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.886+/-0.006</t>
-  </si>
-  <si>
-    <t>0.749+/-0.055</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.59+/-0.006</t>
-  </si>
-  <si>
-    <t>0.504+/-0.038</t>
-  </si>
-  <si>
-    <t>0.562</t>
-  </si>
-  <si>
-    <t>8.425+/-0.193</t>
+    <t>0.869+/-0.0</t>
+  </si>
+  <si>
+    <t>0.881</t>
+  </si>
+  <si>
+    <t>0.875+/-0.006</t>
+  </si>
+  <si>
+    <t>0.744+/-0.052</t>
+  </si>
+  <si>
+    <t>0.765</t>
+  </si>
+  <si>
+    <t>0.6+/-0.006</t>
+  </si>
+  <si>
+    <t>0.517+/-0.042</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>7.121+/-0.126</t>
   </si>
   <si>
     <t>0.852+/-0.002</t>
   </si>
   <si>
-    <t>0.847+/-0.0</t>
-  </si>
-  <si>
-    <t>0.858</t>
-  </si>
-  <si>
-    <t>0.666+/-0.006</t>
-  </si>
-  <si>
-    <t>0.648+/-0.043</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.511+/-0.006</t>
-  </si>
-  <si>
-    <t>0.499+/-0.044</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>1.524+/-0.119</t>
-  </si>
-  <si>
-    <t>0.884+/-0.001</t>
-  </si>
-  <si>
-    <t>0.861+/-0.0</t>
-  </si>
-  <si>
-    <t>0.871</t>
-  </si>
-  <si>
-    <t>0.784+/-0.005</t>
-  </si>
-  <si>
-    <t>0.709+/-0.045</t>
-  </si>
-  <si>
-    <t>0.726</t>
-  </si>
-  <si>
-    <t>0.576+/-0.007</t>
-  </si>
-  <si>
-    <t>0.51+/-0.042</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>6.217+/-0.369</t>
-  </si>
-  <si>
-    <t>0.816+/-0.005</t>
-  </si>
-  <si>
-    <t>0.811+/-0.0</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.932+/-0.017</t>
-  </si>
-  <si>
-    <t>0.881+/-0.082</t>
-  </si>
-  <si>
-    <t>0.935</t>
-  </si>
-  <si>
-    <t>0.081+/-0.026</t>
-  </si>
-  <si>
-    <t>0.06+/-0.021</t>
-  </si>
-  <si>
-    <t>0.105</t>
-  </si>
-  <si>
-    <t>0.991+/-0.058</t>
+    <t>0.846+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.668+/-0.007</t>
+  </si>
+  <si>
+    <t>0.646+/-0.04</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.509+/-0.011</t>
+  </si>
+  <si>
+    <t>0.496+/-0.038</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>1.152+/-0.046</t>
+  </si>
+  <si>
+    <t>0.884+/-0.002</t>
+  </si>
+  <si>
+    <t>0.863+/-0.0</t>
+  </si>
+  <si>
+    <t>0.873</t>
+  </si>
+  <si>
+    <t>0.783+/-0.006</t>
+  </si>
+  <si>
+    <t>0.715+/-0.046</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.572+/-0.008</t>
+  </si>
+  <si>
+    <t>0.512+/-0.043</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>4.319+/-0.327</t>
+  </si>
+  <si>
+    <t>0.844+/-0.005</t>
+  </si>
+  <si>
+    <t>0.835+/-0.0</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.834+/-0.033</t>
+  </si>
+  <si>
+    <t>0.775+/-0.066</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.273+/-0.044</t>
+  </si>
+  <si>
+    <t>0.239+/-0.053</t>
+  </si>
+  <si>
+    <t>0.271</t>
+  </si>
+  <si>
+    <t>0.591+/-0.018</t>
   </si>
 </sst>
 </file>
@@ -685,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>0.6189445196211096</v>
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -702,19 +720,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>0.6189445196211096</v>
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,19 +740,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4">
-        <v>0.6190476190476191</v>
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,19 +760,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -762,19 +780,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -782,19 +800,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -802,19 +820,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -822,19 +840,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -842,19 +860,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -862,19 +880,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -912,19 +930,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.8014433919711321</v>
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -932,19 +950,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.8014433919711321</v>
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -952,19 +970,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.8015873015873016</v>
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -972,19 +990,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -992,19 +1010,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1012,19 +1030,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1032,19 +1050,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1052,19 +1070,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1072,19 +1090,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1092,19 +1110,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/ensemble_models_results_Date_threshold_50_1_replicas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -74,7 +74,10 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.883+/-0.002</t>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.882+/-0.002</t>
   </si>
   <si>
     <t>0.814+/-0.0</t>
@@ -83,112 +86,115 @@
     <t>0.811</t>
   </si>
   <si>
-    <t>0.876+/-0.002</t>
-  </si>
-  <si>
-    <t>0.774+/-0.02</t>
-  </si>
-  <si>
-    <t>0.771</t>
-  </si>
-  <si>
-    <t>0.807+/-0.004</t>
-  </si>
-  <si>
-    <t>0.723+/-0.023</t>
+    <t>0.873+/-0.003</t>
+  </si>
+  <si>
+    <t>0.771+/-0.016</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.806+/-0.003</t>
+  </si>
+  <si>
+    <t>0.729+/-0.023</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>12.397+/-0.922</t>
+  </si>
+  <si>
+    <t>0.768+/-0.003</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.712+/-0.004</t>
+  </si>
+  <si>
+    <t>0.693+/-0.023</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.657+/-0.01</t>
+  </si>
+  <si>
+    <t>0.641+/-0.022</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>1.734+/-0.034</t>
+  </si>
+  <si>
+    <t>0.831+/-0.002</t>
+  </si>
+  <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.793+/-0.002</t>
+  </si>
+  <si>
+    <t>0.75+/-0.02</t>
+  </si>
+  <si>
+    <t>0.743</t>
+  </si>
+  <si>
+    <t>0.754+/-0.004</t>
+  </si>
+  <si>
+    <t>0.711+/-0.02</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>6.928+/-0.276</t>
+  </si>
+  <si>
+    <t>0.789+/-0.003</t>
+  </si>
+  <si>
+    <t>0.767+/-0.0</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.758+/-0.009</t>
+  </si>
+  <si>
+    <t>0.728+/-0.032</t>
   </si>
   <si>
     <t>0.715</t>
   </si>
   <si>
-    <t>9.046+/-0.139</t>
-  </si>
-  <si>
-    <t>0.768+/-0.002</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.754</t>
-  </si>
-  <si>
-    <t>0.712+/-0.004</t>
-  </si>
-  <si>
-    <t>0.691+/-0.02</t>
-  </si>
-  <si>
-    <t>0.701</t>
-  </si>
-  <si>
-    <t>0.655+/-0.005</t>
-  </si>
-  <si>
-    <t>0.641+/-0.02</t>
-  </si>
-  <si>
-    <t>1.47+/-0.029</t>
-  </si>
-  <si>
-    <t>0.832+/-0.002</t>
-  </si>
-  <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.795+/-0.003</t>
-  </si>
-  <si>
-    <t>0.748+/-0.018</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>0.754+/-0.004</t>
-  </si>
-  <si>
-    <t>0.71+/-0.018</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>5.829+/-0.087</t>
-  </si>
-  <si>
-    <t>0.787+/-0.003</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.766</t>
-  </si>
-  <si>
-    <t>0.764+/-0.013</t>
-  </si>
-  <si>
-    <t>0.729+/-0.035</t>
-  </si>
-  <si>
-    <t>0.735</t>
-  </si>
-  <si>
-    <t>0.638+/-0.014</t>
-  </si>
-  <si>
-    <t>0.603+/-0.025</t>
-  </si>
-  <si>
-    <t>0.603</t>
-  </si>
-  <si>
-    <t>0.69+/-0.021</t>
+    <t>0.658+/-0.011</t>
+  </si>
+  <si>
+    <t>0.621+/-0.031</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>1.222+/-0.024</t>
   </si>
   <si>
     <t>0.801+/-0.0</t>
@@ -200,121 +206,118 @@
     <t>0.904+/-0.001</t>
   </si>
   <si>
-    <t>0.869+/-0.0</t>
-  </si>
-  <si>
-    <t>0.881</t>
-  </si>
-  <si>
-    <t>0.875+/-0.006</t>
-  </si>
-  <si>
-    <t>0.744+/-0.052</t>
-  </si>
-  <si>
-    <t>0.765</t>
-  </si>
-  <si>
-    <t>0.6+/-0.006</t>
-  </si>
-  <si>
-    <t>0.517+/-0.042</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>7.121+/-0.126</t>
-  </si>
-  <si>
-    <t>0.852+/-0.002</t>
-  </si>
-  <si>
-    <t>0.846+/-0.0</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>0.668+/-0.007</t>
-  </si>
-  <si>
-    <t>0.646+/-0.04</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.509+/-0.011</t>
-  </si>
-  <si>
-    <t>0.496+/-0.038</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>1.152+/-0.046</t>
-  </si>
-  <si>
-    <t>0.884+/-0.002</t>
-  </si>
-  <si>
-    <t>0.863+/-0.0</t>
-  </si>
-  <si>
-    <t>0.873</t>
-  </si>
-  <si>
-    <t>0.783+/-0.006</t>
-  </si>
-  <si>
-    <t>0.715+/-0.046</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.572+/-0.008</t>
-  </si>
-  <si>
-    <t>0.512+/-0.043</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>4.319+/-0.327</t>
-  </si>
-  <si>
-    <t>0.844+/-0.005</t>
-  </si>
-  <si>
-    <t>0.835+/-0.0</t>
-  </si>
-  <si>
-    <t>0.843</t>
-  </si>
-  <si>
-    <t>0.834+/-0.033</t>
-  </si>
-  <si>
-    <t>0.775+/-0.066</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.273+/-0.044</t>
-  </si>
-  <si>
-    <t>0.239+/-0.053</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>0.591+/-0.018</t>
+    <t>0.871+/-0.0</t>
+  </si>
+  <si>
+    <t>0.882</t>
+  </si>
+  <si>
+    <t>0.887+/-0.004</t>
+  </si>
+  <si>
+    <t>0.761+/-0.051</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.593+/-0.008</t>
+  </si>
+  <si>
+    <t>0.512+/-0.04</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>11.139+/-0.177</t>
+  </si>
+  <si>
+    <t>0.854+/-0.002</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.672+/-0.006</t>
+  </si>
+  <si>
+    <t>0.655+/-0.044</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.515+/-0.008</t>
+  </si>
+  <si>
+    <t>0.505+/-0.047</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>1.812+/-0.032</t>
+  </si>
+  <si>
+    <t>0.887+/-0.001</t>
+  </si>
+  <si>
+    <t>0.866+/-0.0</t>
+  </si>
+  <si>
+    <t>0.803+/-0.003</t>
+  </si>
+  <si>
+    <t>0.728+/-0.046</t>
+  </si>
+  <si>
+    <t>0.772</t>
+  </si>
+  <si>
+    <t>0.573+/-0.005</t>
+  </si>
+  <si>
+    <t>0.517+/-0.038</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>7.648+/-0.338</t>
+  </si>
+  <si>
+    <t>0.834+/-0.007</t>
+  </si>
+  <si>
+    <t>0.825+/-0.0</t>
+  </si>
+  <si>
+    <t>0.835</t>
+  </si>
+  <si>
+    <t>0.896+/-0.025</t>
+  </si>
+  <si>
+    <t>0.827+/-0.064</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>0.186+/-0.047</t>
+  </si>
+  <si>
+    <t>0.153+/-0.052</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>1.251+/-0.046</t>
   </si>
 </sst>
 </file>
@@ -703,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -723,16 +726,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -743,16 +746,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -763,16 +766,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -783,16 +786,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -803,16 +806,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -823,16 +826,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -843,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -863,16 +866,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -880,19 +883,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -930,19 +933,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -950,19 +953,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -970,19 +973,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -993,16 +996,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1013,16 +1016,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1033,16 +1036,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1053,16 +1056,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1073,16 +1076,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1093,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1110,19 +1113,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
